--- a/Planning related/Burn-down chart EPO-4.xlsx
+++ b/Planning related/Burn-down chart EPO-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raela\OneDrive\Elektro\year3\EPO4\EPO4 git\EPO-4-A05\Planning related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1206324A-DDC6-403A-96FE-7FC5D5BFB6CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31DF40-FDE3-4704-9A68-589B10D14F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DOING</t>
   </si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,30 +465,32 @@
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
@@ -493,7 +498,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
@@ -501,7 +506,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="4"/>
@@ -509,7 +514,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
@@ -517,7 +522,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
@@ -525,7 +530,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
@@ -533,7 +538,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="4"/>
@@ -541,7 +546,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
@@ -549,7 +554,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="4"/>
@@ -557,7 +562,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning related/Burn-down chart EPO-4.xlsx
+++ b/Planning related/Burn-down chart EPO-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raela\OneDrive\Elektro\year3\EPO4\EPO4 git\EPO-4-A05\Planning related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E31DF40-FDE3-4704-9A68-589B10D14F98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEB4F9-1D0D-4FFE-8457-BF66BFEA7690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DOING</t>
   </si>
@@ -54,14 +54,33 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t>All</t>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Ruben, Pieter</t>
+  </si>
+  <si>
+    <t>Arthur, Lennert, Rick</t>
+  </si>
+  <si>
+    <t>NEXT DEADLINE</t>
+  </si>
+  <si>
+    <t>-Watch the video lecture 
+-Start with module 1 assignment</t>
+  </si>
+  <si>
+    <t>-Start designing the GUI</t>
+  </si>
+  <si>
+    <t>-Figuring out how to use the app designer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +96,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,21 +149,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,18 +546,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC0E9AC-C7CF-4326-89F0-D62C1A768CE3}">
-  <dimension ref="C3:H13"/>
+  <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="8" width="20.77734375" customWidth="1"/>
+    <col min="3" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -473,96 +567,123 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44312.354166666664</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="3:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>46138.354166666664</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning related/Burn-down chart EPO-4.xlsx
+++ b/Planning related/Burn-down chart EPO-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raela\OneDrive\Elektro\year3\EPO4\EPO4 git\EPO-4-A05\Planning related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AEB4F9-1D0D-4FFE-8457-BF66BFEA7690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D85A2B-6D55-4C5F-9A61-A1BB03227CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DOING</t>
   </si>
@@ -54,26 +54,39 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
     <t>Ruben, Pieter</t>
   </si>
   <si>
     <t>Arthur, Lennert, Rick</t>
   </si>
   <si>
-    <t>NEXT DEADLINE</t>
-  </si>
-  <si>
-    <t>-Watch the video lecture 
--Start with module 1 assignment</t>
-  </si>
-  <si>
-    <t>-Start designing the GUI</t>
-  </si>
-  <si>
     <t>-Figuring out how to use the app designer</t>
+  </si>
+  <si>
+    <t>-Watch the video lecture
+-Module 1 assignments</t>
+  </si>
+  <si>
+    <t>Module 1: Machine Learning</t>
+  </si>
+  <si>
+    <t>NEXT DEADLINE 
+(underscore = hard deadline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Designing the GUI
+</t>
+  </si>
+  <si>
+    <t>-Fix crashes
+-Merge files</t>
+  </si>
+  <si>
+    <t>-Working out module 1 assignments in Overleaf</t>
+  </si>
+  <si>
+    <t>-Implement for loop assignment 1.1
+-Finish overleaf report</t>
   </si>
 </sst>
 </file>
@@ -97,6 +110,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,11 +206,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,30 +218,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,141 +572,150 @@
   <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="9" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="3:9" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="17">
+        <v>44312.354166666664</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44312.354166666664</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>46138.354166666664</v>
+      <c r="I5" s="11">
+        <v>44315.354166666664</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning related/Burn-down chart EPO-4.xlsx
+++ b/Planning related/Burn-down chart EPO-4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raela\OneDrive\Elektro\year3\EPO4\EPO4 git\EPO-4-A05\Planning related\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8023c1ee523082b/Elektro/year3/EPO4/EPO4 git/EPO-4-A05/Planning related/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D85A2B-6D55-4C5F-9A61-A1BB03227CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{48D85A2B-6D55-4C5F-9A61-A1BB03227CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CE35E73-B76F-4AF0-B28A-EA09950DBE91}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>DOING</t>
   </si>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>-Figuring out how to use the app designer</t>
-  </si>
-  <si>
-    <t>-Watch the video lecture
--Module 1 assignments</t>
   </si>
   <si>
     <t>Module 1: Machine Learning</t>
@@ -82,11 +78,30 @@
 -Merge files</t>
   </si>
   <si>
-    <t>-Working out module 1 assignments in Overleaf</t>
-  </si>
-  <si>
-    <t>-Implement for loop assignment 1.1
--Finish overleaf report</t>
+    <t>Module 2: Speech Recognition</t>
+  </si>
+  <si>
+    <t>-Finish overleaf report</t>
+  </si>
+  <si>
+    <t>-Finish assignment 1</t>
+  </si>
+  <si>
+    <t>-Make assignment 2</t>
+  </si>
+  <si>
+    <t>-Watch the video lectures</t>
+  </si>
+  <si>
+    <t>-Work out assignment 1 in Overleaf</t>
+  </si>
+  <si>
+    <t>-Watch the video lectures
+-All asignments
+-Work out assignment 2 in Overleaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module 3: </t>
   </si>
 </sst>
 </file>
@@ -571,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC0E9AC-C7CF-4326-89F0-D62C1A768CE3}">
   <dimension ref="C3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -608,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="10" t="s">
@@ -620,23 +635,21 @@
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17">
-        <v>44312.354166666664</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="3:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
@@ -646,16 +659,28 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>

--- a/Planning related/Burn-down chart EPO-4.xlsx
+++ b/Planning related/Burn-down chart EPO-4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8023c1ee523082b/Elektro/year3/EPO4/EPO4 git/EPO-4-A05/Planning related/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{48D85A2B-6D55-4C5F-9A61-A1BB03227CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CE35E73-B76F-4AF0-B28A-EA09950DBE91}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{48D85A2B-6D55-4C5F-9A61-A1BB03227CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A23CAE16-CD4F-4C7E-BAFA-A99F09B7BE1C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
+    <workbookView minimized="1" xWindow="1740" yWindow="1740" windowWidth="7500" windowHeight="6000" xr2:uid="{20B3EFE6-214A-4C9C-B6A1-7E1D03CD9315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>DOING</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Arthur, Lennert, Rick</t>
-  </si>
-  <si>
-    <t>-Figuring out how to use the app designer</t>
   </si>
   <si>
     <t>Module 1: Machine Learning</t>
@@ -70,38 +67,50 @@
 (underscore = hard deadline)</t>
   </si>
   <si>
-    <t xml:space="preserve">-Designing the GUI
-</t>
-  </si>
-  <si>
-    <t>-Fix crashes
--Merge files</t>
-  </si>
-  <si>
     <t>Module 2: Speech Recognition</t>
   </si>
   <si>
-    <t>-Finish overleaf report</t>
-  </si>
-  <si>
-    <t>-Finish assignment 1</t>
-  </si>
-  <si>
-    <t>-Make assignment 2</t>
-  </si>
-  <si>
-    <t>-Watch the video lectures</t>
-  </si>
-  <si>
-    <t>-Work out assignment 1 in Overleaf</t>
+    <t xml:space="preserve">Module 3: </t>
+  </si>
+  <si>
+    <t>-Make task 2</t>
+  </si>
+  <si>
+    <t>-Work out task 1 in Overleaf</t>
   </si>
   <si>
     <t>-Watch the video lectures
 -All asignments
--Work out assignment 2 in Overleaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module 3: </t>
+-Work out task 2 in Overleaf</t>
+  </si>
+  <si>
+    <t>-Watch the video lectures
+-Finish task 1</t>
+  </si>
+  <si>
+    <t>-Work out task 1 in overleaf
+-Work out task 2 in overleaf</t>
+  </si>
+  <si>
+    <t>-Finish module 1 in Overleaf</t>
+  </si>
+  <si>
+    <t>Arthur, Lennert</t>
+  </si>
+  <si>
+    <t>-Implementation with new car model</t>
+  </si>
+  <si>
+    <t>-Figuring out how to use the app designer
+-Merge files
+-Designing the GUI</t>
+  </si>
+  <si>
+    <t>-Add speech recognition
+-Drive to way points</t>
+  </si>
+  <si>
+    <t>-Verify new car model</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
   <dimension ref="C3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -623,14 +632,14 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>7</v>
@@ -639,38 +648,36 @@
     </row>
     <row r="5" spans="3:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="11">
-        <v>44315.354166666664</v>
-      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>6</v>
@@ -679,13 +686,17 @@
     </row>
     <row r="7" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="3:9" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
